--- a/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
+++ b/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
@@ -8,7 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Community" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Country" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Region" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Municipality" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Parish" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="229">
   <si>
     <t xml:space="preserve">LOCATION Extended </t>
   </si>
@@ -202,37 +207,579 @@
     <t xml:space="preserve">8.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">New Window  for Country-Community-City-Municipality-Parish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu Option of New Windows</t>
   </si>
   <si>
     <t xml:space="preserve">Menu export</t>
   </si>
   <si>
-    <t xml:space="preserve">Pack 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Location Table</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pack 10</t>
   </si>
   <si>
+    <t xml:space="preserve">8.2.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C_Location Table and </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Messages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for Municipality, </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Parrish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> and Community</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manual</t>
   </si>
   <si>
+    <t xml:space="preserve">C_Country Fill Countrycode 3digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">C_Community Table Fill, SQL Queries</t>
   </si>
   <si>
-    <t xml:space="preserve">See Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Country Fill Countrycode 3digits</t>
+    <t xml:space="preserve">AMERPSOFT Editor - Community Fill.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Org_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Tab_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Column_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_FieldGroup_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsCentrallyMaintained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDisplayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDisplayedGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsReadOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsEncrypted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeqNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeqNoGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSameLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAdvancedField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SortNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObscureType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsHeading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsFieldOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDefaultFocus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Reference_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Val_Rule_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Reference_Value_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsMandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAllowCopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsQuickEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsToolbarButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnSpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsUpdateable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAlwaysUpdateable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlwaysUpdatableLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumLines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsQuickForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MandatoryLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReadOnlyLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_LabelStyle_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VFormat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_FieldStyle_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSelectionColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Val_Rule_Lookup_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Chart_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant for this installation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Tenant is a company or a legal entity. You cannot share data between Tenants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational entity within tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An organization is a unit of your tenant or legal entity - examples are store, department. You can share data between organizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Country defines a Country.  Each Country must be defined before it can be used in any document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The record is active in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are two methods of making records unavailable in the system: One is to delete the record, the other is to de-activate the record. A de-activated record is not available for selection, but available for reports.
+There are two reasons for de-activating and not deleting records:
+(1) The system requires the record for audit purposes.
+(2) The record is referenced by other records. E.g., you cannot delete a Business Partner, if there are invoices for this partner record existing. You de-activate the Business Partner and prevent that this record is used for future entries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphanumeric identifier of the entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of an entity (record) is used as an default search option in addition to the search key. The name is up to 60 characters in length.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional short description of the record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description is limited to 255 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Default Checkbox indicates if this record will be used as a default value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO Country Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper-case two-letter alphanumeric ISO Country code according to ISO 3166-1 - http://www.chemie.fu-berlin.de/diverse/doc/ISO_3166.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For details - http://www.din.de/gremien/nas/nabd/iso3166ma/codlstp1.html or - http://www.unece.org/trade/rec/rec03en.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Code 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Code 3 Digits Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country has Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country contains Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Country has Region checkbox is selected if the Country being defined is divided into regions.  If this checkbox is selected, the Region Tab is accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Region Name defines the name that will print when this region is used in a document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@HasRegion@='Y' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country has Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Country has Community checkbox is selected if the Country being defined is divided into Communities.  If this checkbox is selected, the Community Tab is accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Regions has Municipality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@HasRegion@='Y'  &amp; @HasCommunity@='Y' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Municipality has Parish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@HasRegion@='Y'  &amp; @HasCommunity@='Y'  &amp; @HasMunicipality@='Y'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Cities out of List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flag to allow cities, currently not in the list, to be entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Print Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format for printing this Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Address Print format defines the format to be used when this address prints.  The following notations are used: @C@=City  @P@=Postal  @A@=PostalAdd  @R@=Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Capture Sequence defines the fields to be used when capturing an address on this country.  The following notations are used: @CO@=Country, @C@=City, @P@=Postal, @A@=PostalAdd, @R@=Region, @A1@=Address 1 to @A4@=Address 4.  Country is always mandatory, add a bang ! to make another field mandatory, for example @C!@ makes city mandatory, @A1!@ makes Address 1 mandatory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the phone; Can contain fixed format elements, Variables: "_lLoOaAcCa09"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;B&gt;Validation elements:&lt;/B&gt;
+ 	(Space) any character
+_	Space (fixed character)
+l	any Letter a..Z NO space
+L	any Letter a..Z NO space converted to upper case
+o	any Letter a..Z or space
+O	any Letter a..Z or space converted to upper case
+a	any Letters &amp; Digits NO space
+A	any Letters &amp; Digits NO space converted to upper case
+c	any Letters &amp; Digits or space
+C	any Letters &amp; Digits or space converted to upper case
+0	Digits 0..9 NO space
+9	Digits 0..9 or space
+Example of format "(000)_000-0000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal Code Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the postal code; Can contain fixed format elements, Variables: "_lLoOaAcCa09"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Postal code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has Additional Postal Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Additional Postal Code checkbox indicates if this address uses an additional Postal Code.  If it is selected an additional field displays for entry of the additional Postal Code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Postal Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the value; Can contain fixed format elements, Variables: "_lLoOaAcCa09"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Account No Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the Bank Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Currency for this record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates the Currency to be used when processing or reporting on this record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Routing No Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the Bank Routing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language for this entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Language identifies the language to use for display and formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Address Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format for printing this Address locally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The optional Local Address Print format defines the format to be used when this address prints for the Country.  If defined, this format is used for printing the address for the country rather then the standard address format.
+ The following notations are used: @C@=City  @P@=Postal  @A@=PostalAdd  @R@=Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Local Address Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print Local Address in reverse Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If NOT selected the local sequence is Address 1, Address 2, Address 3, Address 4, City/Region/Postal, Country.
+If selected the local sequence is Country, City/Region/Postal, Address 4, Address 3, Address 2, Address 1.
+The sequence of City/Region/Postal is determined by the local address format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Postcode Lookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does this country have a post code web service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable the IsPostcodeLookup if you wish to configure a post code lookup web service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Media Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Java Media Size. Example: "MediaSize.ISO.A4" (the package javax.print.attribute.standard is assumed). If you define your own media size, use the fully qualified name.
+If the pattern for your language is not correct, please create a iDempiere support request with the correct information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Address Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print Address in reverse Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If NOT selected the sequence is Address 1, Address 2, Address 3, Address 4, City/Region/Postal, Country.
+If selected the sequence is Country, City/Region/Postal, Address 4, Address 3, Address 2, Address 1.
+The sequence of City/Region/Postal is determined by the address format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup ClassName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class name of the postcode lookup plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the class name of the post code lookup plugin for your postcode web service provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup Tenant ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Client ID or Login submitted to the Lookup URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the Client ID or Login for your account provided by the post code web service provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The URL of the web service that the plugin connects to in order to retrieve postcode data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the URL of the web service that the plugin connects to in order to retrieve postcode data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The password submitted to the Lookup URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the password for your account provided by the post code web service provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Country_UU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies a geographical Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Region identifies a unique Region for this Country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Region_UU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capital</t>
   </si>
 </sst>
 </file>
@@ -242,11 +789,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,15 +816,44 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3838"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +864,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,7 +970,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +1039,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,6 +1072,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF3838"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,18 +1140,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.17"/>
   </cols>
   <sheetData>
@@ -716,7 +1383,7 @@
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -731,7 +1398,7 @@
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -746,7 +1413,7 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -761,7 +1428,7 @@
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -776,7 +1443,7 @@
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -791,7 +1458,7 @@
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -806,7 +1473,7 @@
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -821,7 +1488,7 @@
       <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -833,52 +1500,67 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="E27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C28" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="0" t="s">
-        <v>68</v>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>66</v>
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="13" t="s">
-        <v>68</v>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -891,6 +1573,7 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -900,4 +1583,6565 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="119.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>90</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>320</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="S11" s="18" t="n">
+        <v>330</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>110</v>
+      </c>
+      <c r="S12" s="18" t="n">
+        <v>340</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z30" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z31" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z34" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z35" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="S6" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="S7" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>90</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+    </row>
+    <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="22" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
+++ b/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
@@ -8,7 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Community" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Country" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Region" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Municipality" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Parish" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="227">
   <si>
     <t xml:space="preserve">LOCATION Extended </t>
   </si>
@@ -202,37 +207,527 @@
     <t xml:space="preserve">8.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">New Window  for Country-Community-City-Municipality-Parish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu Option of New Windows</t>
   </si>
   <si>
     <t xml:space="preserve">Menu export</t>
   </si>
   <si>
-    <t xml:space="preserve">Pack 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1.0</t>
+    <t xml:space="preserve">Pack 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">C_Location Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Pack 10</t>
+    <t xml:space="preserve">Pack 11</t>
   </si>
   <si>
     <t xml:space="preserve">Manual</t>
   </si>
   <si>
+    <t xml:space="preserve">C_Country Fill Countrycode 3digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">C_Community Table Fill, SQL Queries</t>
   </si>
   <si>
-    <t xml:space="preserve">See Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Country Fill Countrycode 3digits</t>
+    <t xml:space="preserve">AD_Org_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Tab_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Column_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_FieldGroup_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsCentrallyMaintained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDisplayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDisplayedGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsReadOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsEncrypted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeqNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeqNoGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSameLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAdvancedField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SortNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObscureType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsHeading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsFieldOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDefaultFocus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Reference_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Val_Rule_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Reference_Value_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsMandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAllowCopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsQuickEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsToolbarButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnSpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsUpdateable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAlwaysUpdateable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlwaysUpdatableLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumLines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsQuickForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MandatoryLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReadOnlyLogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_LabelStyle_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VFormat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_FieldStyle_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSelectionColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Val_Rule_Lookup_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_Chart_ID[Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant for this installation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Tenant is a company or a legal entity. You cannot share data between Tenants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational entity within tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An organization is a unit of your tenant or legal entity - examples are store, department. You can share data between organizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Country defines a Country.  Each Country must be defined before it can be used in any document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The record is active in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are two methods of making records unavailable in the system: One is to delete the record, the other is to de-activate the record. A de-activated record is not available for selection, but available for reports.
+There are two reasons for de-activating and not deleting records:
+(1) The system requires the record for audit purposes.
+(2) The record is referenced by other records. E.g., you cannot delete a Business Partner, if there are invoices for this partner record existing. You de-activate the Business Partner and prevent that this record is used for future entries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphanumeric identifier of the entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of an entity (record) is used as an default search option in addition to the search key. The name is up to 60 characters in length.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional short description of the record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description is limited to 255 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Default Checkbox indicates if this record will be used as a default value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO Country Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper-case two-letter alphanumeric ISO Country code according to ISO 3166-1 - http://www.chemie.fu-berlin.de/diverse/doc/ISO_3166.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For details - http://www.din.de/gremien/nas/nabd/iso3166ma/codlstp1.html or - http://www.unece.org/trade/rec/rec03en.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Code 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Code 3 Digits Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country has Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country contains Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Country has Region checkbox is selected if the Country being defined is divided into regions.  If this checkbox is selected, the Region Tab is accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Region Name defines the name that will print when this region is used in a document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@HasRegion@='Y' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country has Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Country has Community checkbox is selected if the Country being defined is divided into Communities.  If this checkbox is selected, the Community Tab is accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Regions has Municipality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@HasRegion@='Y'  &amp; @HasCommunity@='Y' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Municipality has Parish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@HasRegion@='Y'  &amp; @HasCommunity@='Y'  &amp; @HasMunicipality@='Y'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Cities out of List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flag to allow cities, currently not in the list, to be entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Print Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format for printing this Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Address Print format defines the format to be used when this address prints.  The following notations are used: @C@=City  @P@=Postal  @A@=PostalAdd  @R@=Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Capture Sequence defines the fields to be used when capturing an address on this country.  The following notations are used: @CO@=Country, @C@=City, @P@=Postal, @A@=PostalAdd, @R@=Region, @A1@=Address 1 to @A4@=Address 4.  Country is always mandatory, add a bang ! to make another field mandatory, for example @C!@ makes city mandatory, @A1!@ makes Address 1 mandatory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the phone; Can contain fixed format elements, Variables: "_lLoOaAcCa09"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;B&gt;Validation elements:&lt;/B&gt;
+ 	(Space) any character
+_	Space (fixed character)
+l	any Letter a..Z NO space
+L	any Letter a..Z NO space converted to upper case
+o	any Letter a..Z or space
+O	any Letter a..Z or space converted to upper case
+a	any Letters &amp; Digits NO space
+A	any Letters &amp; Digits NO space converted to upper case
+c	any Letters &amp; Digits or space
+C	any Letters &amp; Digits or space converted to upper case
+0	Digits 0..9 NO space
+9	Digits 0..9 or space
+Example of format "(000)_000-0000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal Code Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the postal code; Can contain fixed format elements, Variables: "_lLoOaAcCa09"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Postal code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has Additional Postal Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Additional Postal Code checkbox indicates if this address uses an additional Postal Code.  If it is selected an additional field displays for entry of the additional Postal Code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Postal Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the value; Can contain fixed format elements, Variables: "_lLoOaAcCa09"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Account No Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the Bank Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Currency for this record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates the Currency to be used when processing or reporting on this record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Routing No Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format of the Bank Routing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language for this entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Language identifies the language to use for display and formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Address Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format for printing this Address locally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The optional Local Address Print format defines the format to be used when this address prints for the Country.  If defined, this format is used for printing the address for the country rather then the standard address format.
+ The following notations are used: @C@=City  @P@=Postal  @A@=PostalAdd  @R@=Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Local Address Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print Local Address in reverse Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If NOT selected the local sequence is Address 1, Address 2, Address 3, Address 4, City/Region/Postal, Country.
+If selected the local sequence is Country, City/Region/Postal, Address 4, Address 3, Address 2, Address 1.
+The sequence of City/Region/Postal is determined by the local address format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Postcode Lookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does this country have a post code web service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable the IsPostcodeLookup if you wish to configure a post code lookup web service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Media Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Java Media Size. Example: "MediaSize.ISO.A4" (the package javax.print.attribute.standard is assumed). If you define your own media size, use the fully qualified name.
+If the pattern for your language is not correct, please create a iDempiere support request with the correct information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Address Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print Address in reverse Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If NOT selected the sequence is Address 1, Address 2, Address 3, Address 4, City/Region/Postal, Country.
+If selected the sequence is Country, City/Region/Postal, Address 4, Address 3, Address 2, Address 1.
+The sequence of City/Region/Postal is determined by the address format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup ClassName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class name of the postcode lookup plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the class name of the post code lookup plugin for your postcode web service provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup Tenant ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Client ID or Login submitted to the Lookup URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the Client ID or Login for your account provided by the post code web service provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The URL of the web service that the plugin connects to in order to retrieve postcode data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the URL of the web service that the plugin connects to in order to retrieve postcode data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The password submitted to the Lookup URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the password for your account provided by the post code web service provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Country_UU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies a geographical Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Region identifies a unique Region for this Country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Region_UU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capital</t>
   </si>
 </sst>
 </file>
@@ -242,11 +737,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,15 +764,31 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3838"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +799,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,7 +905,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +974,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,6 +1007,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF3838"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,18 +1075,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.17"/>
   </cols>
   <sheetData>
@@ -716,7 +1318,7 @@
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -731,7 +1333,7 @@
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -746,7 +1348,7 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -761,7 +1363,7 @@
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -776,7 +1378,7 @@
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -791,7 +1393,7 @@
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -806,7 +1408,7 @@
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -821,7 +1423,7 @@
       <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -833,52 +1435,67 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>66</v>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="13" t="s">
-        <v>68</v>
+      <c r="C30" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -891,6 +1508,7 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -900,4 +1518,6565 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="119.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>90</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>320</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="S11" s="18" t="n">
+        <v>330</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>110</v>
+      </c>
+      <c r="S12" s="18" t="n">
+        <v>340</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z30" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z31" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z34" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z35" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="S6" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="S7" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>90</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AY10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+    </row>
+    <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="22" t="n">
+        <v>70</v>
+      </c>
+      <c r="S8" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
+++ b/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4972,7 +4972,7 @@
   <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5965,13 +5965,13 @@
   <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="199.34"/>
   </cols>

--- a/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
+++ b/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="246">
   <si>
     <t xml:space="preserve">LOCATION Extended </t>
   </si>
@@ -255,25 +255,58 @@
     <t xml:space="preserve">Pack 11</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Country Fill Countrycode 3digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3.zip</t>
+    <t xml:space="preserve">8.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table C_Country 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3</t>
   </si>
   <si>
     <t xml:space="preserve">Pack 12</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Community Table Fill, SQL Queries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMERPSOFT Editor - Community Fill.zip</t>
+    <t xml:space="preserve">8.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data for Table C_Country 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Data from Window Country Auxiliary ISO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryCode3 Update country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3-Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor - Community Fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separated from META-INF Auto Packs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version for Oracle and PostgreSQL</t>
   </si>
   <si>
     <t xml:space="preserve">AD_Org_ID[Name]</t>
@@ -761,7 +794,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -799,11 +832,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF3838"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -817,7 +845,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +856,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor rgb="FFFF3838"/>
       </patternFill>
     </fill>
     <fill>
@@ -1001,11 +1035,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,11 +1047,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,11 +1063,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,11 +1075,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1081,7 +1115,7 @@
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6D6D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1126,19 +1160,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1335,7 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1344,10 +1378,10 @@
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1398,10 +1432,10 @@
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1412,11 +1446,11 @@
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1428,11 +1462,11 @@
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1443,10 +1477,10 @@
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1458,10 +1492,10 @@
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="4" t="s">
         <v>49</v>
       </c>
@@ -1503,10 +1537,10 @@
       <c r="B28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1518,10 +1552,10 @@
       <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="4" t="s">
         <v>63</v>
       </c>
@@ -1548,10 +1582,10 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="4" t="s">
         <v>71</v>
       </c>
@@ -1563,10 +1597,10 @@
       <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="0" t="s">
         <v>53</v>
       </c>
@@ -1578,11 +1612,11 @@
       <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1593,20 +1627,60 @@
       <c r="B34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="0" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -1618,16 +1692,14 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1643,7 +1715,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
@@ -1657,202 +1729,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -1861,21 +1933,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -1883,7 +1955,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -1900,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -1915,80 +1987,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -2005,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -2020,49 +2092,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>30</v>
@@ -2071,21 +2143,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -2093,7 +2165,7 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="22"/>
       <c r="AH4" s="22"/>
@@ -2110,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP4" s="22"/>
       <c r="AQ4" s="22"/>
@@ -2125,49 +2197,49 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>40</v>
@@ -2176,21 +2248,21 @@
         <v>50</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -2198,7 +2270,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -2215,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -2230,49 +2302,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>50</v>
@@ -2281,21 +2353,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
@@ -2303,7 +2375,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -2320,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
@@ -2335,49 +2407,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>255</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>60</v>
@@ -2386,21 +2458,21 @@
         <v>40</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
@@ -2408,7 +2480,7 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="22"/>
       <c r="AH7" s="22"/>
@@ -2425,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
@@ -2440,49 +2512,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>70</v>
@@ -2491,21 +2563,21 @@
         <v>60</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -2513,7 +2585,7 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="22"/>
@@ -2530,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="22"/>
@@ -2545,66 +2617,66 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -2612,7 +2684,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -2629,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -2645,10 +2717,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2664,7 +2736,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.97"/>
@@ -2679,126 +2751,126 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>10</v>
@@ -2807,125 +2879,125 @@
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>30</v>
@@ -2934,63 +3006,63 @@
         <v>30</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>40</v>
@@ -2999,63 +3071,63 @@
         <v>40</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>50</v>
@@ -3064,60 +3136,60 @@
         <v>60</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>60</v>
@@ -3126,63 +3198,63 @@
         <v>300</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>70</v>
@@ -3191,66 +3263,66 @@
         <v>70</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>80</v>
@@ -3259,68 +3331,68 @@
         <v>80</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>90</v>
@@ -3329,66 +3401,66 @@
         <v>320</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R11" s="22" t="n">
         <v>100</v>
@@ -3397,66 +3469,66 @@
         <v>330</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>110</v>
@@ -3465,62 +3537,62 @@
         <v>340</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>120</v>
@@ -3529,63 +3601,63 @@
         <v>270</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>130</v>
@@ -3594,60 +3666,60 @@
         <v>90</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>140</v>
@@ -3656,63 +3728,63 @@
         <v>280</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>150</v>
@@ -3721,63 +3793,63 @@
         <v>100</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>160</v>
@@ -3786,63 +3858,63 @@
         <v>110</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>170</v>
@@ -3851,63 +3923,63 @@
         <v>120</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>180</v>
@@ -3916,60 +3988,60 @@
         <v>130</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>190</v>
@@ -3978,63 +4050,63 @@
         <v>190</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>200</v>
@@ -4043,60 +4115,60 @@
         <v>140</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>210</v>
@@ -4105,63 +4177,63 @@
         <v>200</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>220</v>
@@ -4170,63 +4242,63 @@
         <v>150</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>230</v>
@@ -4235,63 +4307,63 @@
         <v>170</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>240</v>
@@ -4300,63 +4372,63 @@
         <v>160</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>250</v>
@@ -4365,63 +4437,63 @@
         <v>220</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>40</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>260</v>
@@ -4430,63 +4502,63 @@
         <v>210</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>270</v>
@@ -4495,63 +4567,63 @@
         <v>180</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>280</v>
@@ -4560,63 +4632,63 @@
         <v>230</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>50</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>290</v>
@@ -4625,63 +4697,63 @@
         <v>240</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>300</v>
@@ -4690,63 +4762,63 @@
         <v>250</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>50</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>310</v>
@@ -4755,63 +4827,63 @@
         <v>260</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>320</v>
@@ -4820,146 +4892,146 @@
         <v>310</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4975,7 +5047,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
@@ -4986,199 +5058,199 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>10</v>
@@ -5187,22 +5259,22 @@
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI2" s="0" t="n">
         <v>1</v>
@@ -5214,75 +5286,75 @@
         <v>1</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI3" s="0" t="n">
         <v>4</v>
@@ -5294,51 +5366,51 @@
         <v>1</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>30</v>
@@ -5347,22 +5419,22 @@
         <v>20</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI4" s="0" t="n">
         <v>1</v>
@@ -5374,51 +5446,51 @@
         <v>1</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>40</v>
@@ -5427,22 +5499,22 @@
         <v>60</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI5" s="0" t="n">
         <v>5</v>
@@ -5454,50 +5526,50 @@
         <v>1</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>50</v>
@@ -5506,21 +5578,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
@@ -5528,7 +5600,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -5545,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
@@ -5560,46 +5632,46 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>60</v>
@@ -5608,22 +5680,22 @@
         <v>70</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI7" s="0" t="n">
         <v>5</v>
@@ -5635,51 +5707,51 @@
         <v>1</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="K8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>70</v>
@@ -5688,22 +5760,22 @@
         <v>40</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI8" s="0" t="n">
         <v>1</v>
@@ -5715,51 +5787,51 @@
         <v>1</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>80</v>
@@ -5768,22 +5840,22 @@
         <v>50</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI9" s="0" t="n">
         <v>1</v>
@@ -5795,72 +5867,72 @@
         <v>1</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI10" s="0" t="n">
         <v>1</v>
@@ -5872,66 +5944,66 @@
         <v>1</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI11" s="0" t="n">
         <v>1</v>
@@ -5943,16 +6015,16 @@
         <v>1</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5968,7 +6040,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
@@ -5978,202 +6050,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -6182,21 +6254,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -6204,7 +6276,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -6221,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -6236,80 +6308,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -6326,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -6341,49 +6413,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>30</v>
@@ -6392,21 +6464,21 @@
         <v>40</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -6414,7 +6486,7 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="22"/>
       <c r="AH4" s="22"/>
@@ -6431,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP4" s="22"/>
       <c r="AQ4" s="22"/>
@@ -6446,45 +6518,45 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>50</v>
@@ -6493,21 +6565,21 @@
         <v>50</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -6515,7 +6587,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -6532,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -6547,49 +6619,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="25" t="n">
         <v>60</v>
@@ -6598,21 +6670,21 @@
         <v>20</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
       <c r="X6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
@@ -6620,7 +6692,7 @@
       <c r="AD6" s="25"/>
       <c r="AE6" s="25"/>
       <c r="AF6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="25"/>
       <c r="AH6" s="25"/>
@@ -6637,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="25"/>
@@ -6652,49 +6724,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25" t="n">
         <v>10</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="25" t="n">
         <v>70</v>
@@ -6703,21 +6775,21 @@
         <v>30</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
@@ -6725,7 +6797,7 @@
       <c r="AD7" s="25"/>
       <c r="AE7" s="25"/>
       <c r="AF7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
@@ -6742,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="25"/>
       <c r="AQ7" s="25"/>
@@ -6757,49 +6829,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>80</v>
@@ -6808,21 +6880,21 @@
         <v>60</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -6830,7 +6902,7 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="22"/>
@@ -6847,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="22"/>
@@ -6862,49 +6934,49 @@
     </row>
     <row r="9" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>90</v>
@@ -6913,21 +6985,21 @@
         <v>70</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -6935,7 +7007,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -6952,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -6967,7 +7039,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>59</v>
@@ -6979,54 +7051,54 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>40</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -7034,7 +7106,7 @@
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
@@ -7051,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
@@ -7067,10 +7139,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7086,7 +7158,7 @@
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
@@ -7096,202 +7168,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -7300,21 +7372,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -7322,7 +7394,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -7339,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -7354,80 +7426,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -7444,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -7459,49 +7531,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="26" t="n">
         <v>30</v>
@@ -7510,21 +7582,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
       <c r="X4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
@@ -7532,7 +7604,7 @@
       <c r="AD4" s="26"/>
       <c r="AE4" s="26"/>
       <c r="AF4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -7549,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP4" s="26"/>
       <c r="AQ4" s="26"/>
@@ -7564,49 +7636,49 @@
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>40</v>
@@ -7615,21 +7687,21 @@
         <v>60</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -7637,7 +7709,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -7654,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -7669,49 +7741,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="26" t="n">
         <v>50</v>
@@ -7720,21 +7792,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
@@ -7742,7 +7814,7 @@
       <c r="AD6" s="26"/>
       <c r="AE6" s="26"/>
       <c r="AF6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
@@ -7759,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="26"/>
       <c r="AQ6" s="26"/>
@@ -7774,49 +7846,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>60</v>
@@ -7825,21 +7897,21 @@
         <v>70</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
@@ -7847,7 +7919,7 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="22"/>
       <c r="AH7" s="22"/>
@@ -7864,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
@@ -7879,7 +7951,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>62</v>
@@ -7891,33 +7963,33 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="26" t="n">
         <v>70</v>
@@ -7926,21 +7998,21 @@
         <v>40</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
@@ -7948,7 +8020,7 @@
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -7965,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
@@ -7980,49 +8052,49 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>80</v>
@@ -8031,21 +8103,21 @@
         <v>50</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -8053,7 +8125,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -8070,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -8085,7 +8157,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>62</v>
@@ -8097,54 +8169,54 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -8152,7 +8224,7 @@
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
@@ -8169,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
@@ -8185,10 +8257,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
+++ b/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="246">
   <si>
     <t xml:space="preserve">LOCATION Extended </t>
   </si>
@@ -255,25 +255,58 @@
     <t xml:space="preserve">Pack 11</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Country Fill Countrycode 3digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3.zip</t>
+    <t xml:space="preserve">8.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table C_Country 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3</t>
   </si>
   <si>
     <t xml:space="preserve">Pack 12</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Community Table Fill, SQL Queries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMERPSOFT Editor - Community Fill.zip</t>
+    <t xml:space="preserve">8.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data for Table C_Country 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Data from Window Country Auxiliary ISO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryCode3 Update country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor – CountryCode3-Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT Editor - Community Fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separated from META-INF Auto Packs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version for Oracle and PostgreSQL</t>
   </si>
   <si>
     <t xml:space="preserve">AD_Org_ID[Name]</t>
@@ -761,7 +794,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -799,11 +832,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF3838"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -817,7 +845,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +856,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor rgb="FFFF3838"/>
       </patternFill>
     </fill>
     <fill>
@@ -1001,11 +1035,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,11 +1047,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,11 +1063,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,11 +1075,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1081,7 +1115,7 @@
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6D6D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1126,19 +1160,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1335,7 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1344,10 +1378,10 @@
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1398,10 +1432,10 @@
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1412,11 +1446,11 @@
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1428,11 +1462,11 @@
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1443,10 +1477,10 @@
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1458,10 +1492,10 @@
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="4" t="s">
         <v>49</v>
       </c>
@@ -1503,10 +1537,10 @@
       <c r="B28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1518,10 +1552,10 @@
       <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="4" t="s">
         <v>63</v>
       </c>
@@ -1548,10 +1582,10 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="4" t="s">
         <v>71</v>
       </c>
@@ -1563,10 +1597,10 @@
       <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="0" t="s">
         <v>53</v>
       </c>
@@ -1578,11 +1612,11 @@
       <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1593,20 +1627,60 @@
       <c r="B34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="0" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -1618,16 +1692,14 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1643,7 +1715,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
@@ -1657,202 +1729,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -1861,21 +1933,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -1883,7 +1955,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -1900,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -1915,80 +1987,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -2005,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -2020,49 +2092,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>30</v>
@@ -2071,21 +2143,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -2093,7 +2165,7 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="22"/>
       <c r="AH4" s="22"/>
@@ -2110,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP4" s="22"/>
       <c r="AQ4" s="22"/>
@@ -2125,49 +2197,49 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>40</v>
@@ -2176,21 +2248,21 @@
         <v>50</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -2198,7 +2270,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -2215,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -2230,49 +2302,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>50</v>
@@ -2281,21 +2353,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
@@ -2303,7 +2375,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -2320,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
@@ -2335,49 +2407,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>255</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>60</v>
@@ -2386,21 +2458,21 @@
         <v>40</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
@@ -2408,7 +2480,7 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="22"/>
       <c r="AH7" s="22"/>
@@ -2425,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
@@ -2440,49 +2512,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>70</v>
@@ -2491,21 +2563,21 @@
         <v>60</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -2513,7 +2585,7 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="22"/>
@@ -2530,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="22"/>
@@ -2545,66 +2617,66 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -2612,7 +2684,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -2629,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -2645,10 +2717,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2664,7 +2736,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.97"/>
@@ -2679,126 +2751,126 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>10</v>
@@ -2807,125 +2879,125 @@
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>30</v>
@@ -2934,63 +3006,63 @@
         <v>30</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>40</v>
@@ -2999,63 +3071,63 @@
         <v>40</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>50</v>
@@ -3064,60 +3136,60 @@
         <v>60</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>60</v>
@@ -3126,63 +3198,63 @@
         <v>300</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>70</v>
@@ -3191,66 +3263,66 @@
         <v>70</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>80</v>
@@ -3259,68 +3331,68 @@
         <v>80</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>90</v>
@@ -3329,66 +3401,66 @@
         <v>320</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R11" s="22" t="n">
         <v>100</v>
@@ -3397,66 +3469,66 @@
         <v>330</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>110</v>
@@ -3465,62 +3537,62 @@
         <v>340</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>120</v>
@@ -3529,63 +3601,63 @@
         <v>270</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>130</v>
@@ -3594,60 +3666,60 @@
         <v>90</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>140</v>
@@ -3656,63 +3728,63 @@
         <v>280</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>150</v>
@@ -3721,63 +3793,63 @@
         <v>100</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>160</v>
@@ -3786,63 +3858,63 @@
         <v>110</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>170</v>
@@ -3851,63 +3923,63 @@
         <v>120</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>180</v>
@@ -3916,60 +3988,60 @@
         <v>130</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>190</v>
@@ -3978,63 +4050,63 @@
         <v>190</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>200</v>
@@ -4043,60 +4115,60 @@
         <v>140</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>210</v>
@@ -4105,63 +4177,63 @@
         <v>200</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>220</v>
@@ -4170,63 +4242,63 @@
         <v>150</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>230</v>
@@ -4235,63 +4307,63 @@
         <v>170</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>240</v>
@@ -4300,63 +4372,63 @@
         <v>160</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>250</v>
@@ -4365,63 +4437,63 @@
         <v>220</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>40</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>260</v>
@@ -4430,63 +4502,63 @@
         <v>210</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>270</v>
@@ -4495,63 +4567,63 @@
         <v>180</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>280</v>
@@ -4560,63 +4632,63 @@
         <v>230</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>50</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>290</v>
@@ -4625,63 +4697,63 @@
         <v>240</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>300</v>
@@ -4690,63 +4762,63 @@
         <v>250</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z31" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>50</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>310</v>
@@ -4755,63 +4827,63 @@
         <v>260</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z32" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>320</v>
@@ -4820,146 +4892,146 @@
         <v>310</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z33" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z34" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z35" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4975,7 +5047,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
@@ -4986,199 +5058,199 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>10</v>
@@ -5187,22 +5259,22 @@
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI2" s="0" t="n">
         <v>1</v>
@@ -5214,75 +5286,75 @@
         <v>1</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI3" s="0" t="n">
         <v>4</v>
@@ -5294,51 +5366,51 @@
         <v>1</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>30</v>
@@ -5347,22 +5419,22 @@
         <v>20</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI4" s="0" t="n">
         <v>1</v>
@@ -5374,51 +5446,51 @@
         <v>1</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>40</v>
@@ -5427,22 +5499,22 @@
         <v>60</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI5" s="0" t="n">
         <v>5</v>
@@ -5454,50 +5526,50 @@
         <v>1</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>50</v>
@@ -5506,21 +5578,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
@@ -5528,7 +5600,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -5545,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
@@ -5560,46 +5632,46 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>60</v>
@@ -5608,22 +5680,22 @@
         <v>70</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI7" s="0" t="n">
         <v>5</v>
@@ -5635,51 +5707,51 @@
         <v>1</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="K8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>70</v>
@@ -5688,22 +5760,22 @@
         <v>40</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI8" s="0" t="n">
         <v>1</v>
@@ -5715,51 +5787,51 @@
         <v>1</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>80</v>
@@ -5768,22 +5840,22 @@
         <v>50</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI9" s="0" t="n">
         <v>1</v>
@@ -5795,72 +5867,72 @@
         <v>1</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI10" s="0" t="n">
         <v>1</v>
@@ -5872,66 +5944,66 @@
         <v>1</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AI11" s="0" t="n">
         <v>1</v>
@@ -5943,16 +6015,16 @@
         <v>1</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5968,7 +6040,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
@@ -5978,202 +6050,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -6182,21 +6254,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -6204,7 +6276,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -6221,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -6236,80 +6308,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -6326,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -6341,49 +6413,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>30</v>
@@ -6392,21 +6464,21 @@
         <v>40</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -6414,7 +6486,7 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="22"/>
       <c r="AH4" s="22"/>
@@ -6431,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP4" s="22"/>
       <c r="AQ4" s="22"/>
@@ -6446,45 +6518,45 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>50</v>
@@ -6493,21 +6565,21 @@
         <v>50</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -6515,7 +6587,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -6532,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -6547,49 +6619,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="25" t="n">
         <v>60</v>
@@ -6598,21 +6670,21 @@
         <v>20</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
       <c r="X6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
@@ -6620,7 +6692,7 @@
       <c r="AD6" s="25"/>
       <c r="AE6" s="25"/>
       <c r="AF6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="25"/>
       <c r="AH6" s="25"/>
@@ -6637,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="25"/>
@@ -6652,49 +6724,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25" t="n">
         <v>10</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="25" t="n">
         <v>70</v>
@@ -6703,21 +6775,21 @@
         <v>30</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
@@ -6725,7 +6797,7 @@
       <c r="AD7" s="25"/>
       <c r="AE7" s="25"/>
       <c r="AF7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
@@ -6742,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="25"/>
       <c r="AQ7" s="25"/>
@@ -6757,49 +6829,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>80</v>
@@ -6808,21 +6880,21 @@
         <v>60</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -6830,7 +6902,7 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="22"/>
@@ -6847,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="22"/>
@@ -6862,49 +6934,49 @@
     </row>
     <row r="9" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>90</v>
@@ -6913,21 +6985,21 @@
         <v>70</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -6935,7 +7007,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -6952,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -6967,7 +7039,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>59</v>
@@ -6979,54 +7051,54 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>40</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -7034,7 +7106,7 @@
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
@@ -7051,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
@@ -7067,10 +7139,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7086,7 +7158,7 @@
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
@@ -7096,202 +7168,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -7300,21 +7372,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -7322,7 +7394,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -7339,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -7354,80 +7426,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -7444,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -7459,49 +7531,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R4" s="26" t="n">
         <v>30</v>
@@ -7510,21 +7582,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
       <c r="X4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
@@ -7532,7 +7604,7 @@
       <c r="AD4" s="26"/>
       <c r="AE4" s="26"/>
       <c r="AF4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -7549,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP4" s="26"/>
       <c r="AQ4" s="26"/>
@@ -7564,49 +7636,49 @@
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>40</v>
@@ -7615,21 +7687,21 @@
         <v>60</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -7637,7 +7709,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -7654,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -7669,49 +7741,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R6" s="26" t="n">
         <v>50</v>
@@ -7720,21 +7792,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
@@ -7742,7 +7814,7 @@
       <c r="AD6" s="26"/>
       <c r="AE6" s="26"/>
       <c r="AF6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
@@ -7759,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP6" s="26"/>
       <c r="AQ6" s="26"/>
@@ -7774,49 +7846,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>60</v>
@@ -7825,21 +7897,21 @@
         <v>70</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
@@ -7847,7 +7919,7 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="22"/>
       <c r="AH7" s="22"/>
@@ -7864,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
@@ -7879,7 +7951,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>62</v>
@@ -7891,33 +7963,33 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R8" s="26" t="n">
         <v>70</v>
@@ -7926,21 +7998,21 @@
         <v>40</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
@@ -7948,7 +8020,7 @@
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -7965,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
@@ -7980,49 +8052,49 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>80</v>
@@ -8031,21 +8103,21 @@
         <v>50</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -8053,7 +8125,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -8070,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -8085,7 +8157,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>62</v>
@@ -8097,54 +8169,54 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -8152,7 +8224,7 @@
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
@@ -8169,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
@@ -8185,10 +8257,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
+++ b/org.amerpsoft.com.idempiere.editors-com/documentation/Tables.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="248">
   <si>
     <t xml:space="preserve">LOCATION Extended </t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t xml:space="preserve">AMERPSOFT Editor – CountryCode3-Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERPSOFT World Demography</t>
   </si>
   <si>
     <t xml:space="preserve">Pack 14</t>
@@ -1160,13 +1166,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
@@ -1651,32 +1657,45 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="B37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
+      <c r="D37" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1711,7 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1715,7 +1734,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
@@ -1729,202 +1748,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -1933,21 +1952,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -1955,7 +1974,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -1972,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -1987,80 +2006,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -2077,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -2092,49 +2111,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>30</v>
@@ -2143,21 +2162,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -2165,7 +2184,7 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG4" s="22"/>
       <c r="AH4" s="22"/>
@@ -2182,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP4" s="22"/>
       <c r="AQ4" s="22"/>
@@ -2197,49 +2216,49 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>40</v>
@@ -2248,21 +2267,21 @@
         <v>50</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -2270,7 +2289,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -2287,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -2302,49 +2321,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>50</v>
@@ -2353,21 +2372,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
@@ -2375,7 +2394,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -2392,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
@@ -2407,49 +2426,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>255</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>60</v>
@@ -2458,21 +2477,21 @@
         <v>40</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
@@ -2480,7 +2499,7 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG7" s="22"/>
       <c r="AH7" s="22"/>
@@ -2497,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
@@ -2512,49 +2531,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>70</v>
@@ -2563,21 +2582,21 @@
         <v>60</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -2585,7 +2604,7 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="22"/>
@@ -2602,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="22"/>
@@ -2617,66 +2636,66 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -2684,7 +2703,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -2701,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -2736,7 +2755,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.97"/>
@@ -2751,126 +2770,126 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>10</v>
@@ -2879,125 +2898,125 @@
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>30</v>
@@ -3006,63 +3025,63 @@
         <v>30</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>40</v>
@@ -3071,63 +3090,63 @@
         <v>40</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>50</v>
@@ -3136,60 +3155,60 @@
         <v>60</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>60</v>
@@ -3198,63 +3217,63 @@
         <v>300</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>70</v>
@@ -3263,66 +3282,66 @@
         <v>70</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>80</v>
@@ -3331,68 +3350,68 @@
         <v>80</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>90</v>
@@ -3401,66 +3420,66 @@
         <v>320</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R11" s="22" t="n">
         <v>100</v>
@@ -3469,66 +3488,66 @@
         <v>330</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>110</v>
@@ -3537,62 +3556,62 @@
         <v>340</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>120</v>
@@ -3601,63 +3620,63 @@
         <v>270</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>130</v>
@@ -3666,60 +3685,60 @@
         <v>90</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>140</v>
@@ -3728,63 +3747,63 @@
         <v>280</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E16" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>150</v>
@@ -3793,63 +3812,63 @@
         <v>100</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>196</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>160</v>
@@ -3858,63 +3877,63 @@
         <v>110</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>199</v>
-      </c>
       <c r="I18" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>170</v>
@@ -3923,63 +3942,63 @@
         <v>120</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>180</v>
@@ -3988,60 +4007,60 @@
         <v>130</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>190</v>
@@ -4050,63 +4069,63 @@
         <v>190</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>200</v>
@@ -4115,60 +4134,60 @@
         <v>140</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>210</v>
@@ -4177,63 +4196,63 @@
         <v>200</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>220</v>
@@ -4242,63 +4261,63 @@
         <v>150</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E24" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="I24" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>230</v>
@@ -4307,63 +4326,63 @@
         <v>170</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E25" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="I25" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>240</v>
@@ -4372,63 +4391,63 @@
         <v>160</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>220</v>
-      </c>
       <c r="I26" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>250</v>
@@ -4437,63 +4456,63 @@
         <v>220</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>223</v>
-      </c>
       <c r="I27" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>40</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>260</v>
@@ -4502,63 +4521,63 @@
         <v>210</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E28" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>270</v>
@@ -4567,63 +4586,63 @@
         <v>180</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>229</v>
-      </c>
       <c r="I29" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>280</v>
@@ -4632,63 +4651,63 @@
         <v>230</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="I30" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>50</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>290</v>
@@ -4697,63 +4716,63 @@
         <v>240</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>235</v>
-      </c>
       <c r="I31" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>300</v>
@@ -4762,63 +4781,63 @@
         <v>250</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>238</v>
-      </c>
       <c r="I32" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>50</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>310</v>
@@ -4827,63 +4846,63 @@
         <v>260</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E33" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="I33" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>320</v>
@@ -4892,137 +4911,137 @@
         <v>310</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +5066,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
@@ -5058,199 +5077,199 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>10</v>
@@ -5259,22 +5278,22 @@
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI2" s="0" t="n">
         <v>1</v>
@@ -5286,75 +5305,75 @@
         <v>1</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI3" s="0" t="n">
         <v>4</v>
@@ -5366,51 +5385,51 @@
         <v>1</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>30</v>
@@ -5419,22 +5438,22 @@
         <v>20</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI4" s="0" t="n">
         <v>1</v>
@@ -5446,51 +5465,51 @@
         <v>1</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>40</v>
@@ -5499,22 +5518,22 @@
         <v>60</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI5" s="0" t="n">
         <v>5</v>
@@ -5526,50 +5545,50 @@
         <v>1</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>50</v>
@@ -5578,21 +5597,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
@@ -5600,7 +5619,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -5617,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
@@ -5632,46 +5651,46 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>60</v>
@@ -5680,22 +5699,22 @@
         <v>70</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI7" s="0" t="n">
         <v>5</v>
@@ -5707,51 +5726,51 @@
         <v>1</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>60</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>70</v>
@@ -5760,22 +5779,22 @@
         <v>40</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI8" s="0" t="n">
         <v>1</v>
@@ -5787,51 +5806,51 @@
         <v>1</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>255</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>80</v>
@@ -5840,22 +5859,22 @@
         <v>50</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI9" s="0" t="n">
         <v>1</v>
@@ -5867,72 +5886,72 @@
         <v>1</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>22</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI10" s="0" t="n">
         <v>1</v>
@@ -5944,66 +5963,66 @@
         <v>1</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI11" s="0" t="n">
         <v>1</v>
@@ -6015,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6040,7 +6059,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
@@ -6050,202 +6069,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -6254,21 +6273,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -6276,7 +6295,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -6293,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -6308,80 +6327,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -6398,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -6413,49 +6432,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>30</v>
@@ -6464,21 +6483,21 @@
         <v>40</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -6486,7 +6505,7 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG4" s="22"/>
       <c r="AH4" s="22"/>
@@ -6503,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP4" s="22"/>
       <c r="AQ4" s="22"/>
@@ -6518,45 +6537,45 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>50</v>
@@ -6565,21 +6584,21 @@
         <v>50</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -6587,7 +6606,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -6604,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -6619,49 +6638,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R6" s="25" t="n">
         <v>60</v>
@@ -6670,21 +6689,21 @@
         <v>20</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
       <c r="X6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
@@ -6692,7 +6711,7 @@
       <c r="AD6" s="25"/>
       <c r="AE6" s="25"/>
       <c r="AF6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG6" s="25"/>
       <c r="AH6" s="25"/>
@@ -6709,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="25"/>
@@ -6724,49 +6743,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25" t="n">
         <v>10</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R7" s="25" t="n">
         <v>70</v>
@@ -6775,21 +6794,21 @@
         <v>30</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
@@ -6797,7 +6816,7 @@
       <c r="AD7" s="25"/>
       <c r="AE7" s="25"/>
       <c r="AF7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
@@ -6814,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP7" s="25"/>
       <c r="AQ7" s="25"/>
@@ -6829,49 +6848,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>80</v>
@@ -6880,21 +6899,21 @@
         <v>60</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
@@ -6902,7 +6921,7 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="22"/>
@@ -6919,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="22"/>
@@ -6934,49 +6953,49 @@
     </row>
     <row r="9" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>90</v>
@@ -6985,21 +7004,21 @@
         <v>70</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -7007,7 +7026,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -7024,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -7039,7 +7058,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>59</v>
@@ -7051,54 +7070,54 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>40</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -7106,7 +7125,7 @@
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
@@ -7123,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
@@ -7158,7 +7177,7 @@
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
@@ -7168,202 +7187,202 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AP1" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AT1" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU1" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AY1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2" s="22" t="n">
         <v>10</v>
@@ -7372,21 +7391,21 @@
         <v>10</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
@@ -7394,7 +7413,7 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -7411,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
@@ -7426,80 +7445,80 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>20</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
@@ -7516,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
@@ -7531,49 +7550,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4" s="26" t="n">
         <v>30</v>
@@ -7582,21 +7601,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
       <c r="X4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
@@ -7604,7 +7623,7 @@
       <c r="AD4" s="26"/>
       <c r="AE4" s="26"/>
       <c r="AF4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -7621,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP4" s="26"/>
       <c r="AQ4" s="26"/>
@@ -7636,49 +7655,49 @@
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>40</v>
@@ -7687,21 +7706,21 @@
         <v>60</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -7709,7 +7728,7 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG5" s="22"/>
       <c r="AH5" s="22"/>
@@ -7726,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
@@ -7741,49 +7760,49 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R6" s="26" t="n">
         <v>50</v>
@@ -7792,21 +7811,21 @@
         <v>30</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
@@ -7814,7 +7833,7 @@
       <c r="AD6" s="26"/>
       <c r="AE6" s="26"/>
       <c r="AF6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
@@ -7831,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP6" s="26"/>
       <c r="AQ6" s="26"/>
@@ -7846,49 +7865,49 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>60</v>
@@ -7897,21 +7916,21 @@
         <v>70</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
@@ -7919,7 +7938,7 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG7" s="22"/>
       <c r="AH7" s="22"/>
@@ -7936,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
@@ -7951,7 +7970,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>62</v>
@@ -7963,33 +7982,33 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26" t="n">
         <v>10</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R8" s="26" t="n">
         <v>70</v>
@@ -7998,21 +8017,21 @@
         <v>40</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
@@ -8020,7 +8039,7 @@
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -8037,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
@@ -8052,49 +8071,49 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="n">
         <v>60</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>80</v>
@@ -8103,21 +8122,21 @@
         <v>50</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -8125,7 +8144,7 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -8142,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -8157,7 +8176,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>62</v>
@@ -8169,54 +8188,54 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -8224,7 +8243,7 @@
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
@@ -8241,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
